--- a/biology/Zoologie/Euoticus_elegantulus/Euoticus_elegantulus.xlsx
+++ b/biology/Zoologie/Euoticus_elegantulus/Euoticus_elegantulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Galago élégant[4] ou Galago mignon[4] (Euoticus elegantulus) est une espèce de primates strepsirrhinien de la famille des Galagidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Galago élégant ou Galago mignon (Euoticus elegantulus) est une espèce de primates strepsirrhinien de la famille des Galagidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Cameroun, en République centrafricaine, au Gabon, en Guinée équatoriale et en République du Congo. Elle vit dans les forêts tropicales humides primaires et secondaires de basse altitude[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Cameroun, en République centrafricaine, au Gabon, en Guinée équatoriale et en République du Congo. Elle vit dans les forêts tropicales humides primaires et secondaires de basse altitude.
 </t>
         </is>
       </c>
